--- a/src/main/resources/objectLocator/OR_PI.xlsx
+++ b/src/main/resources/objectLocator/OR_PI.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0833A6-6DF8-4A14-81E5-051EEA18CD64}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A25491-44A2-4C63-A3E8-FB41A628EBBA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>pgRPR_Charge</t>
   </si>
@@ -34,14 +34,17 @@
     <t>ObjSearchKey</t>
   </si>
   <si>
-    <t>https://*testamt.com*RecurringCharge*</t>
+    <t>https://*amt*.com*RecurringCharge*</t>
+  </si>
+  <si>
+    <t>Parent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,8 +52,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -60,6 +84,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6E0B4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -88,15 +118,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -387,10 +426,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <sheetPr codeName="Sheet32"/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,9 +437,10 @@
     <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.140625" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="56.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -410,20 +450,36 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2 A82:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{7D473F43-2662-44F0-A826-5E724503A80B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>